--- a/medicine/Enfance/Jean-Louis_Lejeune_(auteur)/Jean-Louis_Lejeune_(auteur).xlsx
+++ b/medicine/Enfance/Jean-Louis_Lejeune_(auteur)/Jean-Louis_Lejeune_(auteur).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Lejeune, né le 13 mai 1946 à Andenne (province de Namur), est un auteur de bande dessinée, dessinateur de presse et illustrateur de littérature d'enfance et de jeunesse belge francophone.
 </t>
@@ -511,22 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Louis Lejeune naît le 13 mai 1946[1] à Andenne[2],[3].
-Après avoir lu La bête est morte ! de Calvo, il souhaite devenir dessinateur[3]. En 1966, il étudie la communication visuelle[4] à l'Institut Saint-Luc de Bruxelles, où il obtient son diplôme en 1970[3]. Il considère Boris Artzybasheff, Tomi Ungerer ou Gabrielle Vincent parmi ses peintres et illustrateurs préférés[3]. Dans le domaine de l'animation, il admire Tex Avery, Ub Iwerks et Picha. Parmi ses auteurs et dessinateurs préférés figurent Blutch, André François, ou Jean-Marc Reiser, ainsi que les américains Robert Crumb, Jack Davis ou Rick Griffin[3].
-En 1968, il crée son propre studio[3]. Il devient ensuite professeur à l'École supérieure des arts Le 75[3]. Il est également actif comme animateur ainsi il travaille quelque temps dans le studio d'animation de Bob Vandersteen, produisant des dessins animés pour la chaîne publique belge BRTN/RTBF[3]. Il anime également le générique d'ouverture de l'émission grand public Minute Papillon (1982-1992) sur la chaîne de télévision RTBF[3]. Entre 1999 et 2015, il est actif en tant qu'instructeur de tai chi à la Société internationale de tai chi taoïste Fung Loy Kok[3].
-Conception de couvertures et d'affiches
-Il réalise plusieurs couvertures de magazines comme Pourquoi Pas ?, Charlie Hebdo, Knack, L'Instant, Le Matin, Le Journal de l'Europe, Media Marketing et Plus Magazine[3]. Il conçoit également plusieurs affiches pour Amnesty International, des théâtres, des expositions artistiques et le festival Anima[3]. En 1993, il est engagé par Thierry Tinlot pour réaliser le restyling du magazine Spirou, notamment sa couverture et son logo[3]. Le premier numéro avec le nouveau look est le no 2909 du 12 janvier 1994[5].
-Illustrations de livres
-Depuis la fin des années 1970, il illustre divers livres. Il s'agit notamment de Idi Amin Dada, 1er Empereur de Belgique[6] de Richard Olivier (Multipress, 1979), Love, love... c'est vite dit ! avec Jean-Claire Lacroix et Claude Oreel (Infor Jeunes, 1983), Victoria Flique de Francine Léonard (1985), Dr. Car and Mr. Toon[7] (Magic Strip, 1987), Pincettes avec Igwal (Glénat, 1989), Quelques dessins et quelques aphorismes verticaux[4],[8] (2015) et Mes Dessins Généralistes (catalogue du musée, 2015)[3].
-En 1979, à l'occasion du millénaire de Bruxelles, il franchit la frontière entre illustration et bande dessinée, et il égaye les pages du livre Bruxelles Babel. Chronique illustrée de Bruxelles, écrite par M. Géoris pour l'édition française et Walter Soethoudt pour sa traduction néerlandaise : Brussel, De Sjanzende Stad. Brusselse Cronijcken[3]. Il décrit l'histoire chronologique de Bruxelles dans un texte écrit, en se concentrant sur des événements marquants, des personnages remarquables et des anecdotes colorées[3]. Les dessins pleins d'esprit ne sont parfois que de simples illustrations, caricatures ou cartoons. Sur certaines pages, il utilise occasionnellement des bandes dessinées pantomimes. Les phylactères sont utilisés avec parcimonie, se concentrant souvent sur un seul mot ou une phrase courte[3].
-Bande dessinée
-Tout au long de sa carrière, il ne réalise que quelques bandes dessinées, malgré un style irritable et cartoonesque. Dans le no 15 de Métal hurlant du 1er mars 1977, il crée le récit en une planche La Femme de ménage[9]. En 1979, il réalise d'abord trois gags sur un scénario d'Yvan Delporte, puis il crée également la série de bande dessinée humoristique Les Extrêmes se touchent avec le même scénariste qui paraît dans les numéros 18-21 d'(À suivre), entre janvier et octobre 1979[10]. En 1980, il réalise trois courts récits de 6 planches pour la série de bande dessinée surréaliste et hautement métafictionnelle Titre est à la fin... dans l'éphémère magazine Aïe ![11]. Il met en scène un homme dans un paysage désolé, cherchant plus de sens à sa vie en discutant avec un gigantesque bouddha souriant[3].
-En 2001 et en 2002, il présente ses vœux dans Spirou[12]. Il contribue également au magazine BoDoï, notamment dans les nos 119 et 121 en 2008[3].
-En outre, il contribue à l'album collectif Pétition - À la recherche d'Oesterheld et de tant d'autres ! publié par Amnesty International en 1986 ainsi qu'au premier volume intitulé Le Plat Pays consacré à l'adaptation en bande dessinée des chansons de Jacques Brel, édité par la maison d'édition Brain Factory International en 1987[3]. Il est également l'un des nombreux artistes à rendre hommage à Ever Meulen lors de l'exposition Ever Meulen and Friends en octobre 2017 à Bruxelles[3].
-Expositions
-Le travail de Lejeune est exposé à la Seed Factory de la Maison de l'Image à Auderghem du 5 novembre au 31 décembre 2015[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Lejeune naît le 13 mai 1946 à Andenne,.
+Après avoir lu La bête est morte ! de Calvo, il souhaite devenir dessinateur. En 1966, il étudie la communication visuelle à l'Institut Saint-Luc de Bruxelles, où il obtient son diplôme en 1970. Il considère Boris Artzybasheff, Tomi Ungerer ou Gabrielle Vincent parmi ses peintres et illustrateurs préférés. Dans le domaine de l'animation, il admire Tex Avery, Ub Iwerks et Picha. Parmi ses auteurs et dessinateurs préférés figurent Blutch, André François, ou Jean-Marc Reiser, ainsi que les américains Robert Crumb, Jack Davis ou Rick Griffin.
+En 1968, il crée son propre studio. Il devient ensuite professeur à l'École supérieure des arts Le 75. Il est également actif comme animateur ainsi il travaille quelque temps dans le studio d'animation de Bob Vandersteen, produisant des dessins animés pour la chaîne publique belge BRTN/RTBF. Il anime également le générique d'ouverture de l'émission grand public Minute Papillon (1982-1992) sur la chaîne de télévision RTBF. Entre 1999 et 2015, il est actif en tant qu'instructeur de tai chi à la Société internationale de tai chi taoïste Fung Loy Kok.
 </t>
         </is>
       </c>
@@ -552,12 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vie privée</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jean-Louis Lejeune vit à Bruxelles.
+          <t>Conception de couvertures et d'affiches</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réalise plusieurs couvertures de magazines comme Pourquoi Pas ?, Charlie Hebdo, Knack, L'Instant, Le Matin, Le Journal de l'Europe, Media Marketing et Plus Magazine. Il conçoit également plusieurs affiches pour Amnesty International, des théâtres, des expositions artistiques et le festival Anima. En 1993, il est engagé par Thierry Tinlot pour réaliser le restyling du magazine Spirou, notamment sa couverture et son logo. Le premier numéro avec le nouveau look est le no 2909 du 12 janvier 1994.
 </t>
         </is>
       </c>
@@ -583,26 +592,314 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Illustrations de livres</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis la fin des années 1970, il illustre divers livres. Il s'agit notamment de Idi Amin Dada, 1er Empereur de Belgique de Richard Olivier (Multipress, 1979), Love, love... c'est vite dit ! avec Jean-Claire Lacroix et Claude Oreel (Infor Jeunes, 1983), Victoria Flique de Francine Léonard (1985), Dr. Car and Mr. Toon (Magic Strip, 1987), Pincettes avec Igwal (Glénat, 1989), Quelques dessins et quelques aphorismes verticaux, (2015) et Mes Dessins Généralistes (catalogue du musée, 2015).
+En 1979, à l'occasion du millénaire de Bruxelles, il franchit la frontière entre illustration et bande dessinée, et il égaye les pages du livre Bruxelles Babel. Chronique illustrée de Bruxelles, écrite par M. Géoris pour l'édition française et Walter Soethoudt pour sa traduction néerlandaise : Brussel, De Sjanzende Stad. Brusselse Cronijcken. Il décrit l'histoire chronologique de Bruxelles dans un texte écrit, en se concentrant sur des événements marquants, des personnages remarquables et des anecdotes colorées. Les dessins pleins d'esprit ne sont parfois que de simples illustrations, caricatures ou cartoons. Sur certaines pages, il utilise occasionnellement des bandes dessinées pantomimes. Les phylactères sont utilisés avec parcimonie, se concentrant souvent sur un seul mot ou une phrase courte.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tout au long de sa carrière, il ne réalise que quelques bandes dessinées, malgré un style irritable et cartoonesque. Dans le no 15 de Métal hurlant du 1er mars 1977, il crée le récit en une planche La Femme de ménage. En 1979, il réalise d'abord trois gags sur un scénario d'Yvan Delporte, puis il crée également la série de bande dessinée humoristique Les Extrêmes se touchent avec le même scénariste qui paraît dans les numéros 18-21 d'(À suivre), entre janvier et octobre 1979. En 1980, il réalise trois courts récits de 6 planches pour la série de bande dessinée surréaliste et hautement métafictionnelle Titre est à la fin... dans l'éphémère magazine Aïe !. Il met en scène un homme dans un paysage désolé, cherchant plus de sens à sa vie en discutant avec un gigantesque bouddha souriant.
+En 2001 et en 2002, il présente ses vœux dans Spirou. Il contribue également au magazine BoDoï, notamment dans les nos 119 et 121 en 2008.
+En outre, il contribue à l'album collectif Pétition - À la recherche d'Oesterheld et de tant d'autres ! publié par Amnesty International en 1986 ainsi qu'au premier volume intitulé Le Plat Pays consacré à l'adaptation en bande dessinée des chansons de Jacques Brel, édité par la maison d'édition Brain Factory International en 1987. Il est également l'un des nombreux artistes à rendre hommage à Ever Meulen lors de l'exposition Ever Meulen and Friends en octobre 2017 à Bruxelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le travail de Lejeune est exposé à la Seed Factory de la Maison de l'Image à Auderghem du 5 novembre au 31 décembre 2015.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Louis Lejeune vit à Bruxelles.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Publications
-Love, love... c'est vite dit !, Dessin de Jean-Claire Lacroix, Éditions Infor Jeunes, 1983
-Quelques dessins et quelques aphorismes verticaux[8], Bruxelles, Couleur livres, 2015.
-Mes dessins généralistes[13].
-Livres jeunesse en tant qu'illustrateur
-Pincettes, texte : Igwal, Glénat, coll. « Maboule », 1989 (OCLC 462981379)
-Sur le bout de la…, texte : Rascal, L'École des loisirs, coll. « Pastel », 1992  (ISBN 9782211027113) (OCLC 463531787)
-Albums de bande dessinée
-Idi Amin Dada Ier empereur de Belgique[6], Multipress, 1979Scénario : Richard Olivier - Dessin : Jean-Louis Lejeune - Couleurs : noir et blanc
-Dr. Car and Mr. toon[7], Magic Strip, Bruxelles, 1987Scénario, dessin et couleurs : Jean-Louis Lejeune -  (ISBN 978-2-8035-1618-6)
-Collectifs
-Collectif dont Jean-Louis Lejeune, Pétition[14] : À la recherche d'Oesterheld et de tant d'autres !, Amnesty International - Belgique francophone ASBL Groupe 64, novembre 1986, 47 p. (présentation en ligne), p. 1 strip,album broché, noir et blanc
-INT1 La B.D. chante Brel - Le Plat Pays + Les Prénoms, Brain Factory, septembre 1988Scénario : collectif - Dessin : collectif dont Jean-Louis Lejeune - Couleurs : quadrichromie -  (ISBN 1-87085-805-0)
-Expositions
-Mes dessins généralistes, Seed Factory, Auderghem, du 5 novembre au 31 décembre 2015[3],[13].</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Love, love... c'est vite dit !, Dessin de Jean-Claire Lacroix, Éditions Infor Jeunes, 1983
+Quelques dessins et quelques aphorismes verticaux, Bruxelles, Couleur livres, 2015.
+Mes dessins généralistes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Livres jeunesse en tant qu'illustrateur</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Pincettes, texte : Igwal, Glénat, coll. « Maboule », 1989 (OCLC 462981379)
+Sur le bout de la…, texte : Rascal, L'École des loisirs, coll. « Pastel », 1992  (ISBN 9782211027113) (OCLC 463531787)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Idi Amin Dada Ier empereur de Belgique, Multipress, 1979Scénario : Richard Olivier - Dessin : Jean-Louis Lejeune - Couleurs : noir et blanc
+Dr. Car and Mr. toon, Magic Strip, Bruxelles, 1987Scénario, dessin et couleurs : Jean-Louis Lejeune -  (ISBN 978-2-8035-1618-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Collectif dont Jean-Louis Lejeune, Pétition : À la recherche d'Oesterheld et de tant d'autres !, Amnesty International - Belgique francophone ASBL Groupe 64, novembre 1986, 47 p. (présentation en ligne), p. 1 strip,album broché, noir et blanc
+INT1 La B.D. chante Brel - Le Plat Pays + Les Prénoms, Brain Factory, septembre 1988Scénario : collectif - Dessin : collectif dont Jean-Louis Lejeune - Couleurs : quadrichromie -  (ISBN 1-87085-805-0)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Louis_Lejeune_(auteur)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Mes dessins généralistes, Seed Factory, Auderghem, du 5 novembre au 31 décembre 2015,.</t>
         </is>
       </c>
     </row>
